--- a/src/test/resources/BBA Products.xlsx
+++ b/src/test/resources/BBA Products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15855" windowHeight="2610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -25,12 +25,13 @@
     <sheet name="Health, Fitness &amp; Personal Care" sheetId="15" r:id="rId16"/>
     <sheet name="Sustainable Living" sheetId="16" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
   <si>
     <t>Home, Furniture &amp; Office</t>
   </si>
@@ -459,6 +460,9 @@
   </si>
   <si>
     <t>Vacuum Cleaners &amp; Floor Care</t>
+  </si>
+  <si>
+    <t>All Vacuums &amp; Floor Care</t>
   </si>
 </sst>
 </file>
@@ -797,9 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -807,83 +813,91 @@
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
       <c r="B10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
         <v>141</v>
       </c>
     </row>
